--- a/Relationships between variables.xlsx
+++ b/Relationships between variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\M1 Valencia\Data acquisition\Group-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48128826-3FE8-4D72-8E46-8AE9E0CA4097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5C5A5B-26B0-4B9D-B116-5DE1F06E16EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Relationships between variables.xlsx
+++ b/Relationships between variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\M1 Valencia\Data acquisition\Group-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5C5A5B-26B0-4B9D-B116-5DE1F06E16EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553DA349-E1F5-403F-AB06-6AFB05AE9484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9180" yWindow="110" windowWidth="10050" windowHeight="6000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="16">
   <si>
     <t>source</t>
   </si>
@@ -36,40 +36,43 @@
     <t>Treatment</t>
   </si>
   <si>
-    <t>aphids</t>
-  </si>
-  <si>
-    <t>syrphid</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>Crop_mat</t>
-  </si>
-  <si>
-    <t>Crop_type</t>
-  </si>
-  <si>
-    <t>Seminat</t>
-  </si>
-  <si>
-    <t>Plot</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
     <t>aphids_parasitized</t>
   </si>
   <si>
-    <t>aphids_parisitized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aphids </t>
+    <t>APG</t>
+  </si>
+  <si>
+    <t>Aphids density</t>
+  </si>
+  <si>
+    <t>Syrphid fraction</t>
+  </si>
+  <si>
+    <t>Final Cabbage biomass</t>
+  </si>
+  <si>
+    <t>Field Management</t>
+  </si>
+  <si>
+    <t>Crop maturity</t>
+  </si>
+  <si>
+    <t>Crop type</t>
+  </si>
+  <si>
+    <t>% Seminatural habitat</t>
+  </si>
+  <si>
+    <t>Plot ID</t>
+  </si>
+  <si>
+    <t>Parasitism rate</t>
+  </si>
+  <si>
+    <t>Aphids parasitized</t>
   </si>
 </sst>
 </file>
@@ -109,9 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -446,27 +450,27 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,31 +478,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -506,100 +510,180 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
